--- a/list1.xlsx
+++ b/list1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e39a5067324f7cf/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{E0F9C847-A229-4E06-B903-F6F20E4CABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54DE2A55-E9F9-48BE-BE97-7FAAC63EB693}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{E0F9C847-A229-4E06-B903-F6F20E4CABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB0666A-34CD-4FB9-843C-20828D685E8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E7C4D58-8BBC-40AA-A923-904EADDAC9DF}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <t>ownership %</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>Nace</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,10 +509,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
